--- a/app/assets/fixture_sheets/wcc fixture generator.xlsx
+++ b/app/assets/fixture_sheets/wcc fixture generator.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andypierce/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BBE2C5B0-FEA8-7041-914F-E547E6DFE257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91F1471-676E-E841-A8AC-354426C1567B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38180" yWindow="-980" windowWidth="38400" windowHeight="19480"/>
+    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wcc round 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -40,11 +40,17 @@
   <si>
     <t>first round bye</t>
   </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>WCC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -878,16 +884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,13 +906,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>36</v>
@@ -914,13 +923,16 @@
       <c r="D2">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>170</v>
@@ -928,13 +940,16 @@
       <c r="D3">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>224</v>
@@ -942,13 +957,16 @@
       <c r="D4">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>64</v>
@@ -956,13 +974,16 @@
       <c r="D5">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>236</v>
@@ -970,13 +991,16 @@
       <c r="D6">
         <v>228</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>205</v>
@@ -984,13 +1008,16 @@
       <c r="D7">
         <v>227</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>204</v>
@@ -998,13 +1025,16 @@
       <c r="D8">
         <v>226</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>103</v>
@@ -1012,13 +1042,16 @@
       <c r="D9">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>178</v>
@@ -1026,13 +1059,16 @@
       <c r="D10">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>71</v>
@@ -1040,13 +1076,16 @@
       <c r="D11">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>120</v>
@@ -1054,13 +1093,16 @@
       <c r="D12">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>84</v>
@@ -1068,13 +1110,16 @@
       <c r="D13">
         <v>218</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>117</v>
@@ -1082,13 +1127,16 @@
       <c r="D14">
         <v>216</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>76</v>
@@ -1096,13 +1144,16 @@
       <c r="D15">
         <v>214</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>118</v>
@@ -1110,13 +1161,16 @@
       <c r="D16">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1124,13 +1178,16 @@
       <c r="D17">
         <v>211</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>137</v>
@@ -1138,13 +1195,16 @@
       <c r="D18">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>139</v>
@@ -1152,13 +1212,16 @@
       <c r="D19">
         <v>209</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>28</v>
@@ -1166,13 +1229,16 @@
       <c r="D20">
         <v>208</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>38</v>
@@ -1180,13 +1246,16 @@
       <c r="D21">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>105</v>
@@ -1194,13 +1263,16 @@
       <c r="D22">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>59</v>
@@ -1208,13 +1280,16 @@
       <c r="D23">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>172</v>
@@ -1222,13 +1297,16 @@
       <c r="D24">
         <v>197</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1236,13 +1314,16 @@
       <c r="D25">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>147</v>
@@ -1250,13 +1331,16 @@
       <c r="D26">
         <v>195</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>166</v>
@@ -1264,13 +1348,16 @@
       <c r="D27">
         <v>189</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>19</v>
@@ -1278,13 +1365,16 @@
       <c r="D28">
         <v>188</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>88</v>
@@ -1292,13 +1382,16 @@
       <c r="D29">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>50</v>
@@ -1306,13 +1399,16 @@
       <c r="D30">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>225</v>
@@ -1320,13 +1416,16 @@
       <c r="D31">
         <v>185</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>212</v>
@@ -1334,13 +1433,16 @@
       <c r="D32">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>47</v>
@@ -1348,13 +1450,16 @@
       <c r="D33">
         <v>182</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>232</v>
@@ -1362,13 +1467,16 @@
       <c r="D34">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>90</v>
@@ -1376,13 +1484,16 @@
       <c r="D35">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>116</v>
@@ -1390,13 +1501,16 @@
       <c r="D36">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>141</v>
@@ -1404,13 +1518,16 @@
       <c r="D37">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>43</v>
@@ -1418,13 +1535,16 @@
       <c r="D38">
         <v>168</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>55</v>
@@ -1432,13 +1552,16 @@
       <c r="D39">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>190</v>
@@ -1446,13 +1569,16 @@
       <c r="D40">
         <v>165</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>198</v>
@@ -1460,13 +1586,16 @@
       <c r="D41">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>111</v>
@@ -1474,13 +1603,16 @@
       <c r="D42">
         <v>162</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>153</v>
@@ -1488,13 +1620,16 @@
       <c r="D43">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>40</v>
@@ -1502,13 +1637,16 @@
       <c r="D44">
         <v>159</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>70</v>
@@ -1516,13 +1654,16 @@
       <c r="D45">
         <v>158</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>106</v>
@@ -1530,13 +1671,16 @@
       <c r="D46">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>164</v>
@@ -1544,13 +1688,16 @@
       <c r="D47">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>113</v>
@@ -1558,13 +1705,16 @@
       <c r="D48">
         <v>149</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>206</v>
@@ -1572,13 +1722,16 @@
       <c r="D49">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>155</v>
@@ -1586,13 +1739,16 @@
       <c r="D50">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>151</v>
@@ -1600,13 +1756,16 @@
       <c r="D51">
         <v>143</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>180</v>
@@ -1614,13 +1773,16 @@
       <c r="D52">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>152</v>
@@ -1628,13 +1790,16 @@
       <c r="D53">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>238</v>
@@ -1642,13 +1807,16 @@
       <c r="D54">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>239</v>
@@ -1656,13 +1824,16 @@
       <c r="D55">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>61</v>
@@ -1670,13 +1841,16 @@
       <c r="D56">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>11</v>
@@ -1684,13 +1858,16 @@
       <c r="D57">
         <v>132</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>240</v>
@@ -1698,13 +1875,16 @@
       <c r="D58">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>221</v>
@@ -1712,13 +1892,16 @@
       <c r="D59">
         <v>129</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>233</v>
@@ -1726,13 +1909,16 @@
       <c r="D60">
         <v>128</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>115</v>
@@ -1740,13 +1926,16 @@
       <c r="D61">
         <v>127</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C62">
         <v>124</v>
@@ -1754,13 +1943,16 @@
       <c r="D62">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C63">
         <v>171</v>
@@ -1768,13 +1960,16 @@
       <c r="D63">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C64">
         <v>91</v>
@@ -1782,13 +1977,16 @@
       <c r="D64">
         <v>121</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C65">
         <v>17</v>
@@ -1796,13 +1994,16 @@
       <c r="D65">
         <v>112</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>60</v>
@@ -1810,13 +2011,16 @@
       <c r="D66">
         <v>110</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>191</v>
@@ -1824,13 +2028,16 @@
       <c r="D67">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>31</v>
@@ -1838,13 +2045,16 @@
       <c r="D68">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>58</v>
@@ -1852,13 +2062,16 @@
       <c r="D69">
         <v>107</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>56</v>
@@ -1866,13 +2079,16 @@
       <c r="D70">
         <v>104</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <v>46</v>
@@ -1880,13 +2096,16 @@
       <c r="D71">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>49</v>
@@ -1894,13 +2113,16 @@
       <c r="D72">
         <v>99</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>174</v>
@@ -1908,13 +2130,16 @@
       <c r="D73">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>57</v>
@@ -1922,13 +2147,16 @@
       <c r="D74">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>123</v>
@@ -1936,13 +2164,16 @@
       <c r="D75">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>69</v>
@@ -1950,13 +2181,16 @@
       <c r="D76">
         <v>87</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>202</v>
@@ -1964,13 +2198,16 @@
       <c r="D77">
         <v>86</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>140</v>
@@ -1978,13 +2215,16 @@
       <c r="D78">
         <v>82</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>215</v>
@@ -1992,13 +2232,16 @@
       <c r="D79">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>114</v>
@@ -2006,13 +2249,16 @@
       <c r="D80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>235</v>
@@ -2020,13 +2266,16 @@
       <c r="D81">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>9</v>
@@ -2034,13 +2283,16 @@
       <c r="D82">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C83">
         <v>150</v>
@@ -2048,13 +2300,16 @@
       <c r="D83">
         <v>73</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C84">
         <v>203</v>
@@ -2062,13 +2317,16 @@
       <c r="D84">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C85">
         <v>161</v>
@@ -2076,13 +2334,16 @@
       <c r="D85">
         <v>68</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2090,13 +2351,16 @@
       <c r="D86">
         <v>67</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C87">
         <v>75</v>
@@ -2104,13 +2368,16 @@
       <c r="D87">
         <v>66</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C88">
         <v>136</v>
@@ -2118,13 +2385,16 @@
       <c r="D88">
         <v>63</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C89">
         <v>41</v>
@@ -2132,13 +2402,16 @@
       <c r="D89">
         <v>62</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>126</v>
@@ -2146,13 +2419,16 @@
       <c r="D90">
         <v>54</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C91">
         <v>39</v>
@@ -2160,13 +2436,16 @@
       <c r="D91">
         <v>53</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C92">
         <v>96</v>
@@ -2174,13 +2453,16 @@
       <c r="D92">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>65</v>
@@ -2188,13 +2470,16 @@
       <c r="D93">
         <v>51</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>89</v>
@@ -2202,13 +2487,16 @@
       <c r="D94">
         <v>45</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>102</v>
@@ -2216,13 +2504,16 @@
       <c r="D95">
         <v>42</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>217</v>
@@ -2230,13 +2521,16 @@
       <c r="D96">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>101</v>
@@ -2244,13 +2538,16 @@
       <c r="D97">
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>229</v>
@@ -2258,13 +2555,16 @@
       <c r="D98">
         <v>34</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>13</v>
@@ -2272,13 +2572,16 @@
       <c r="D99">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>176</v>
@@ -2286,13 +2589,16 @@
       <c r="D100">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>183</v>
@@ -2300,13 +2606,16 @@
       <c r="D101">
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C102">
         <v>25</v>
@@ -2314,13 +2623,16 @@
       <c r="D102">
         <v>27</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>44</v>
@@ -2328,13 +2640,16 @@
       <c r="D103">
         <v>26</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2342,13 +2657,16 @@
       <c r="D104">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C105">
         <v>177</v>
@@ -2356,13 +2674,16 @@
       <c r="D105">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C106">
         <v>194</v>
@@ -2370,13 +2691,16 @@
       <c r="D106">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C107">
         <v>92</v>
@@ -2384,13 +2708,16 @@
       <c r="D107">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C108">
         <v>20</v>
@@ -2398,13 +2725,16 @@
       <c r="D108">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C109">
         <v>77</v>
@@ -2412,13 +2742,16 @@
       <c r="D109">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>48</v>
@@ -2426,13 +2759,16 @@
       <c r="D110">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C111">
         <v>94</v>
@@ -2440,13 +2776,16 @@
       <c r="D111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C112">
         <v>146</v>
@@ -2454,13 +2793,16 @@
       <c r="D112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113">
         <v>7</v>
@@ -2468,13 +2810,16 @@
       <c r="D113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C114">
         <v>181</v>
@@ -2482,9 +2827,12 @@
       <c r="D114">
         <v>1</v>
       </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
       <sortCondition descending="1" ref="D1:D121"/>
     </sortState>
@@ -2494,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
